--- a/src/resources/ulkeler.xlsx
+++ b/src/resources/ulkeler.xlsx
@@ -13,7 +13,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="579">
   <si>
     <t>Ülke (İngilizce)</t>
   </si>
@@ -1740,12 +1740,31 @@
   </si>
   <si>
     <t>Zimbabve</t>
+  </si>
+  <si>
+    <t>MehmetLand</t>
+  </si>
+  <si>
+    <t>Mehmetistan</t>
+  </si>
+  <si>
+    <t>JavaCity</t>
+  </si>
+  <si>
+    <t>JavaKent</t>
+  </si>
+  <si>
+    <t>Nufus</t>
+  </si>
+  <si>
+    <t>1.500.000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2166,15 +2185,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D191"/>
+  <dimension ref="A1:E192"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A174" workbookViewId="0">
+      <selection activeCell="D188" sqref="D188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="25.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="4" customWidth="true" width="25.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2190,6 +2209,9 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -2204,6 +2226,9 @@
       <c r="D2" s="6" t="s">
         <v>7</v>
       </c>
+      <c r="E2" t="s">
+        <v>578</v>
+      </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
@@ -2316,6 +2341,9 @@
       <c r="D10" s="8" t="s">
         <v>30</v>
       </c>
+      <c r="E10" t="n">
+        <v>250000.0</v>
+      </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
@@ -2386,6 +2414,9 @@
       <c r="D15" s="7" t="s">
         <v>49</v>
       </c>
+      <c r="E15" t="n">
+        <v>54000.0</v>
+      </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
@@ -4849,6 +4880,20 @@
       </c>
       <c r="D191" s="7" t="s">
         <v>571</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A192" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="B192" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="C192" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="D192" s="8" t="s">
+        <v>576</v>
       </c>
     </row>
   </sheetData>
@@ -4859,14 +4904,129 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A2:I24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I24">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
